--- a/team3C/Prototype/server/test-files/test2.xlsx
+++ b/team3C/Prototype/server/test-files/test2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abf534abba5fb9a7/Desktop/training/mini-DLP/Team3C/Prototype/server/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/abf534abba5fb9a7/Desktop/training/mini-DLP/Team3C/Prototype/server/test-files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0095B26-9DB8-464A-B0F6-7A85BCC74292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{A0095B26-9DB8-464A-B0F6-7A85BCC74292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B27B896D-0217-49E3-BBEC-88DE8BC544AF}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CA721746-640E-41BE-8A77-F1A71C667628}"/>
   </bookViews>
@@ -155,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -165,6 +165,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -482,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0067FAA3-F0B0-4A9C-82AF-26F8CE3AA219}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScale="87" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +507,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -515,7 +518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -526,18 +529,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <v>9876543210</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>11</v>
       </c>
@@ -548,7 +551,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -559,7 +562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
@@ -570,7 +573,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -581,7 +584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="216" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
